--- a/Data/new data.xlsx
+++ b/Data/new data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a06d20bd816c4/Documents/WU Debate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a06d20bd816c4/Documents/GitHub/project-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_F25DC773A252ABDACC104838C11F52DE5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113BF1AB-B1C0-4C1B-8893-71962FAB96A7}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_F25DC773A252ABDACC104838C11F52DE5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A1B621-0D6C-477D-805E-1D7CE603FFF1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3856,9 +3856,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>537</v>
       </c>
@@ -3879,29 +3879,29 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.51171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.78125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.83984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.37890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>18</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>88</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>70</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>91</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>69</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>130</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>66</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>85</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>182</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>186</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>108</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>178</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>179</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>102</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>147</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>95</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>34</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>111</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>49</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>35</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>113</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>166</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>84</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>190</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>188</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>189</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>104</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>116</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>14</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>17</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>117</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>159</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>71</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>93</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>192</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>169</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>177</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>48</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>92</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>20</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>45</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>132</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>143</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>165</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>173</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>28</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>47</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>219</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>19</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>46</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>98</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>148</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>162</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>180</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>181</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>111</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>241</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>244</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>174</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>183</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>3</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>168</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>176</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>184</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>187</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>149</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>170</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>191</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>134</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>175</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>50</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>111</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>133</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>131</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>144</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>244</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>185</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>194</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>105</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>5</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>296</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>70</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>103</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>302</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>302</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>145</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>154</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>241</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>167</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>312</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>33</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>74</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>146</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>194</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>123</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>158</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>23</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>30</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>104</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>97</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>219</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>29</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>198</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>139</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>112</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>127</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>296</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>55</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>16</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>54</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>60</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>99</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>48</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>142</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>73</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>4</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>10</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>332</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>97</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>97</v>
       </c>
@@ -14722,28 +14722,28 @@
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.67578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.859375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.95703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.37890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>433</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>433</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>436</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>440</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>440</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>440</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>446</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>446</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>453</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>453</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>453</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>453</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>459</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>459</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>459</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>463</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>463</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>463</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>468</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>468</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>468</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>468</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>475</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>475</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>475</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>475</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>475</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>475</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>475</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>475</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>475</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>475</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>475</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>487</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>487</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>487</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>497</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>497</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>497</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>500</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>500</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>500</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>510</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>510</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>510</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>510</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>515</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>515</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>515</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>524</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -19754,13 +19754,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.4453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>619</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>619</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>453</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>453</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>453</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>628</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>628</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>487</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>487</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>487</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -22672,7 +22672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>631</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>631</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -22840,7 +22840,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>587</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>587</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>587</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>640</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>640</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -23680,7 +23680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>111</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -24184,7 +24184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>647</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>647</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>648</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>648</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -24464,7 +24464,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -24576,7 +24576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>524</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>652</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>652</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>653</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>653</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>657</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>657</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -25192,7 +25192,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -25360,7 +25360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>143</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>665</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>665</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -25752,7 +25752,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>668</v>
       </c>
@@ -25808,7 +25808,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>668</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>672</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>672</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>672</v>
       </c>
@@ -26088,7 +26088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -26312,7 +26312,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>679</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>679</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>679</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>679</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>683</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>683</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>690</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>690</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>692</v>
       </c>
@@ -27264,7 +27264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>692</v>
       </c>
@@ -27320,7 +27320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>695</v>
       </c>
@@ -27432,7 +27432,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>695</v>
       </c>
@@ -27488,7 +27488,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>695</v>
       </c>
@@ -27544,7 +27544,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -27600,7 +27600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>241</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -27824,7 +27824,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>704</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>704</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -28216,7 +28216,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -28272,7 +28272,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -28328,7 +28328,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -28384,7 +28384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -28608,7 +28608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -28664,7 +28664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -28888,7 +28888,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -28944,7 +28944,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -29000,7 +29000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -29112,7 +29112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -29392,7 +29392,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -29448,7 +29448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -29560,7 +29560,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -29685,12 +29685,12 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="35.51171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29743,7 +29743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -29843,7 +29843,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>433</v>
       </c>
@@ -29996,7 +29996,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>433</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>436</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -30149,7 +30149,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>436</v>
       </c>
@@ -30199,7 +30199,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>436</v>
       </c>
@@ -30252,7 +30252,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>619</v>
       </c>
@@ -30305,7 +30305,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>619</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>446</v>
       </c>
@@ -30458,7 +30458,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>547</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>547</v>
       </c>
@@ -30608,7 +30608,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>547</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -30708,7 +30708,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>547</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>547</v>
       </c>
@@ -30858,7 +30858,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>761</v>
       </c>
@@ -30911,7 +30911,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>761</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>761</v>
       </c>
@@ -31011,7 +31011,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>761</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>761</v>
       </c>
@@ -31114,7 +31114,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>761</v>
       </c>
@@ -31167,7 +31167,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>761</v>
       </c>
@@ -31220,7 +31220,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>773</v>
       </c>
@@ -31270,7 +31270,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>773</v>
       </c>
@@ -31323,7 +31323,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>773</v>
       </c>
@@ -31373,7 +31373,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>773</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>773</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>773</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>773</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>475</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>475</v>
       </c>
@@ -31679,7 +31679,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>475</v>
       </c>
@@ -31732,7 +31732,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>475</v>
       </c>
@@ -31785,7 +31785,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>475</v>
       </c>
@@ -31835,7 +31835,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>791</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>791</v>
       </c>
@@ -31938,7 +31938,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>791</v>
       </c>
@@ -31991,7 +31991,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>791</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>791</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>791</v>
       </c>
@@ -32144,7 +32144,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>791</v>
       </c>
@@ -32194,7 +32194,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>791</v>
       </c>
@@ -32244,7 +32244,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>791</v>
       </c>
@@ -32294,7 +32294,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -32400,7 +32400,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -32450,7 +32450,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -32500,7 +32500,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -32656,7 +32656,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -32709,7 +32709,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -32809,7 +32809,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -32859,7 +32859,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -32912,7 +32912,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>640</v>
       </c>
@@ -33065,7 +33065,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>640</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>640</v>
       </c>
@@ -33168,7 +33168,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>640</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -33271,7 +33271,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>510</v>
       </c>
@@ -33321,7 +33321,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>510</v>
       </c>
@@ -33371,7 +33371,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>510</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>510</v>
       </c>
@@ -33474,7 +33474,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>510</v>
       </c>
@@ -33527,7 +33527,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -33577,7 +33577,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>302</v>
       </c>
@@ -33630,7 +33630,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>302</v>
       </c>
@@ -33733,7 +33733,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>302</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>302</v>
       </c>
@@ -33839,7 +33839,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>302</v>
       </c>
@@ -33889,7 +33889,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>302</v>
       </c>
@@ -33942,7 +33942,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>302</v>
       </c>
@@ -33995,7 +33995,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>849</v>
       </c>
@@ -34045,7 +34045,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>849</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>849</v>
       </c>
@@ -34151,7 +34151,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>849</v>
       </c>
@@ -34201,7 +34201,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>849</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>849</v>
       </c>
@@ -34304,7 +34304,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>849</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>849</v>
       </c>
@@ -34407,7 +34407,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>849</v>
       </c>
@@ -34460,7 +34460,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>849</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>657</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>657</v>
       </c>
@@ -34616,7 +34616,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>657</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>657</v>
       </c>
@@ -34719,7 +34719,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>657</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>657</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>657</v>
       </c>
@@ -34872,7 +34872,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>657</v>
       </c>
@@ -34925,7 +34925,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>873</v>
       </c>
@@ -34975,7 +34975,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>873</v>
       </c>
@@ -35028,7 +35028,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>873</v>
       </c>
@@ -35081,7 +35081,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>873</v>
       </c>
@@ -35131,7 +35131,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>873</v>
       </c>
@@ -35181,7 +35181,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>668</v>
       </c>
@@ -35234,7 +35234,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>668</v>
       </c>
@@ -35287,7 +35287,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>668</v>
       </c>
@@ -35337,7 +35337,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>668</v>
       </c>
@@ -35390,7 +35390,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>668</v>
       </c>
@@ -35443,7 +35443,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>668</v>
       </c>
@@ -35493,7 +35493,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>668</v>
       </c>
@@ -35546,7 +35546,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -35649,7 +35649,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -35702,7 +35702,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -35752,7 +35752,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -35805,7 +35805,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -35858,7 +35858,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -35911,7 +35911,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -35964,7 +35964,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>901</v>
       </c>
@@ -36017,7 +36017,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>901</v>
       </c>
@@ -36067,7 +36067,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>901</v>
       </c>
@@ -36117,7 +36117,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>901</v>
       </c>
@@ -36167,7 +36167,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>901</v>
       </c>
@@ -36217,7 +36217,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>901</v>
       </c>
@@ -36270,7 +36270,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -36320,7 +36320,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -36373,7 +36373,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -36426,7 +36426,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -36476,7 +36476,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -36635,7 +36635,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>97</v>
       </c>
@@ -36688,7 +36688,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>97</v>
       </c>
@@ -36738,7 +36738,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -36791,7 +36791,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>97</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>97</v>
       </c>
@@ -36894,7 +36894,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -36947,7 +36947,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>97</v>
       </c>
@@ -37000,7 +37000,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>97</v>
       </c>
@@ -37053,7 +37053,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>97</v>
       </c>
@@ -37106,7 +37106,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>97</v>
       </c>
@@ -37156,7 +37156,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>97</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>937</v>
       </c>
@@ -37262,7 +37262,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>937</v>
       </c>
@@ -37315,7 +37315,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>937</v>
       </c>
@@ -37365,7 +37365,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>937</v>
       </c>
@@ -37418,7 +37418,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>937</v>
       </c>
@@ -37471,7 +37471,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>937</v>
       </c>
@@ -37524,7 +37524,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>937</v>
       </c>
@@ -37577,7 +37577,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>937</v>
       </c>
@@ -37630,7 +37630,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>937</v>
       </c>
@@ -37683,7 +37683,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -37736,7 +37736,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -37789,7 +37789,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -37842,7 +37842,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -37892,7 +37892,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -37945,7 +37945,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -37998,7 +37998,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -38048,7 +38048,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>963</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>963</v>
       </c>
@@ -38151,7 +38151,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>963</v>
       </c>
@@ -38204,7 +38204,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>963</v>
       </c>
@@ -38254,7 +38254,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>963</v>
       </c>
@@ -38307,7 +38307,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>963</v>
       </c>
@@ -38357,7 +38357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>972</v>
       </c>
@@ -38407,7 +38407,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>972</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>972</v>
       </c>
@@ -38510,7 +38510,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>972</v>
       </c>
@@ -38560,7 +38560,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>972</v>
       </c>
@@ -38613,7 +38613,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>972</v>
       </c>
@@ -38666,7 +38666,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>980</v>
       </c>
@@ -38719,7 +38719,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>980</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>980</v>
       </c>
@@ -38825,7 +38825,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>980</v>
       </c>
@@ -38875,7 +38875,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>980</v>
       </c>
@@ -38928,7 +38928,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>986</v>
       </c>
@@ -38978,7 +38978,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>986</v>
       </c>
@@ -39028,7 +39028,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>986</v>
       </c>
@@ -39078,7 +39078,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>986</v>
       </c>
@@ -39128,7 +39128,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>986</v>
       </c>
@@ -39178,7 +39178,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>986</v>
       </c>
@@ -39228,7 +39228,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>986</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>986</v>
       </c>
@@ -39334,7 +39334,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>998</v>
       </c>
@@ -39384,7 +39384,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>998</v>
       </c>
@@ -39437,7 +39437,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>998</v>
       </c>
@@ -39490,7 +39490,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>998</v>
       </c>
@@ -39543,7 +39543,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>998</v>
       </c>
@@ -39596,7 +39596,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1006</v>
       </c>
@@ -39649,7 +39649,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1006</v>
       </c>
@@ -39702,7 +39702,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1006</v>
       </c>
@@ -39755,7 +39755,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1011</v>
       </c>
@@ -39805,7 +39805,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1011</v>
       </c>
@@ -39855,7 +39855,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1011</v>
       </c>
@@ -39905,7 +39905,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1011</v>
       </c>
@@ -39955,7 +39955,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1011</v>
       </c>
@@ -40005,7 +40005,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1011</v>
       </c>
@@ -40055,7 +40055,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1020</v>
       </c>
@@ -40105,7 +40105,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1020</v>
       </c>
@@ -40158,7 +40158,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1020</v>
       </c>
@@ -40211,7 +40211,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1020</v>
       </c>
@@ -40261,7 +40261,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1020</v>
       </c>
@@ -40314,7 +40314,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1020</v>
       </c>
@@ -40364,7 +40364,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1030</v>
       </c>
@@ -40417,7 +40417,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1030</v>
       </c>
@@ -40470,7 +40470,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1030</v>
       </c>
@@ -40520,7 +40520,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1030</v>
       </c>
@@ -40570,7 +40570,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1037</v>
       </c>
@@ -40623,7 +40623,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>1037</v>
       </c>
@@ -40676,7 +40676,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1041</v>
       </c>
@@ -40729,7 +40729,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1041</v>
       </c>
@@ -40779,7 +40779,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -40832,7 +40832,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -40885,7 +40885,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1047</v>
       </c>
@@ -40938,7 +40938,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1047</v>
       </c>
@@ -40988,7 +40988,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1047</v>
       </c>
@@ -41041,7 +41041,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -41094,7 +41094,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -41147,7 +41147,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -41200,7 +41200,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -41253,7 +41253,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -41306,7 +41306,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -41359,7 +41359,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1060</v>
       </c>
@@ -41409,7 +41409,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1060</v>
       </c>
@@ -41459,7 +41459,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1060</v>
       </c>
@@ -41512,7 +41512,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -41565,7 +41565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -41618,7 +41618,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1066</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1066</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -41774,7 +41774,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1068</v>
       </c>
@@ -41827,7 +41827,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1068</v>
       </c>
@@ -41877,7 +41877,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1068</v>
       </c>
@@ -41930,7 +41930,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -41983,7 +41983,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -42036,7 +42036,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1076</v>
       </c>
@@ -42089,7 +42089,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1076</v>
       </c>
@@ -42142,7 +42142,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1079</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1079</v>
       </c>
@@ -42242,7 +42242,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1079</v>
       </c>
@@ -42295,7 +42295,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -42348,7 +42348,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -42401,7 +42401,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -42451,7 +42451,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -42501,7 +42501,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -42551,7 +42551,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -42601,7 +42601,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -42707,7 +42707,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -42813,7 +42813,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -42866,7 +42866,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -42919,7 +42919,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -42972,7 +42972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1099</v>
       </c>
@@ -43025,7 +43025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1099</v>
       </c>
@@ -43078,7 +43078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -43131,7 +43131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1103</v>
       </c>
@@ -43181,7 +43181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1103</v>
       </c>
@@ -43231,7 +43231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1107</v>
       </c>
@@ -43284,7 +43284,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1107</v>
       </c>
@@ -43337,7 +43337,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -43387,7 +43387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -43440,7 +43440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -43490,7 +43490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -43540,7 +43540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -43590,7 +43590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1114</v>
       </c>
@@ -43643,7 +43643,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1114</v>
       </c>
@@ -43696,7 +43696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1114</v>
       </c>
@@ -43749,7 +43749,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1114</v>
       </c>
@@ -43802,7 +43802,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1114</v>
       </c>
@@ -43852,7 +43852,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1114</v>
       </c>
@@ -43905,7 +43905,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1114</v>
       </c>
@@ -43955,7 +43955,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1114</v>
       </c>
@@ -44005,7 +44005,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1114</v>
       </c>
@@ -44058,7 +44058,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1114</v>
       </c>
@@ -44111,7 +44111,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1114</v>
       </c>
@@ -44164,7 +44164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1114</v>
       </c>
@@ -44217,7 +44217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1114</v>
       </c>
@@ -44270,7 +44270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1114</v>
       </c>
@@ -44323,7 +44323,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1114</v>
       </c>
@@ -44387,7 +44387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44399,7 +44399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/new data.xlsx
+++ b/Data/new data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2a06d20bd816c4/Documents/GitHub/project-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_F25DC773A252ABDACC104838C11F52DE5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A1B621-0D6C-477D-805E-1D7CE603FFF1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB45A7C-EDFE-4743-B8CF-65C982B0DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Princeton" sheetId="4" r:id="rId5"/>
     <sheet name="Steve Hunt" sheetId="5" r:id="rId6"/>
     <sheet name="Carroll Teaching" sheetId="6" r:id="rId7"/>
+    <sheet name="Links" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6598" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7042" uniqueCount="1183">
   <si>
     <t>Rk</t>
   </si>
@@ -3498,6 +3499,153 @@
   </si>
   <si>
     <t>Sissy, Sizi Zhang</t>
+  </si>
+  <si>
+    <t>CC SADU</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CC LEMC</t>
+  </si>
+  <si>
+    <t>SEA HEBE</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>LCC TOMO</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>CC THTO</t>
+  </si>
+  <si>
+    <t>SEA DOBE</t>
+  </si>
+  <si>
+    <t>WILL DODI</t>
+  </si>
+  <si>
+    <t>WILL</t>
+  </si>
+  <si>
+    <t>CC LIWI</t>
+  </si>
+  <si>
+    <t>CC SAME</t>
+  </si>
+  <si>
+    <t>LCC FICH</t>
+  </si>
+  <si>
+    <t>WILL KECH</t>
+  </si>
+  <si>
+    <t>LIN JOSM</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>WILL TRCO</t>
+  </si>
+  <si>
+    <t>CC MOST</t>
+  </si>
+  <si>
+    <t>SEA JAPI</t>
+  </si>
+  <si>
+    <t>CC JEBA</t>
+  </si>
+  <si>
+    <t>CC FRHA</t>
+  </si>
+  <si>
+    <t>CC KECR</t>
+  </si>
+  <si>
+    <t>SEA KHNA</t>
+  </si>
+  <si>
+    <t>CC ORWI</t>
+  </si>
+  <si>
+    <t>SEA DUSL</t>
+  </si>
+  <si>
+    <t>LCC KOSH</t>
+  </si>
+  <si>
+    <t>CC SAPO</t>
+  </si>
+  <si>
+    <t>SEA BRGE</t>
+  </si>
+  <si>
+    <t>1=</t>
+  </si>
+  <si>
+    <t>4=</t>
+  </si>
+  <si>
+    <t>Charles Said</t>
+  </si>
+  <si>
+    <t>Maltin TOcani</t>
+  </si>
+  <si>
+    <t>13=</t>
+  </si>
+  <si>
+    <t>Leah Melvin</t>
+  </si>
+  <si>
+    <t>Ethan Smith</t>
+  </si>
+  <si>
+    <t>15=</t>
+  </si>
+  <si>
+    <t>Merren Troll</t>
+  </si>
+  <si>
+    <t>19=</t>
+  </si>
+  <si>
+    <t>Ronan Cole</t>
+  </si>
+  <si>
+    <t>Emily Mowat</t>
+  </si>
+  <si>
+    <t>Katy Keim</t>
+  </si>
+  <si>
+    <t>33=</t>
+  </si>
+  <si>
+    <t>Na&amp;#x27;ama Shuall</t>
+  </si>
+  <si>
+    <t>Kayden Crozier</t>
+  </si>
+  <si>
+    <t>Madison Kollar</t>
+  </si>
+  <si>
+    <t>39=</t>
+  </si>
+  <si>
+    <t>45=</t>
+  </si>
+  <si>
+    <t>Sophie Portmann</t>
   </si>
 </sst>
 </file>
@@ -3852,21 +4000,2468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7403276-E188-471B-8F2F-6D081A417FF0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>537</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I2">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <v>314</v>
+      </c>
+      <c r="O2">
+        <v>78.5</v>
+      </c>
+      <c r="P2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K3">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M3">
+        <v>80</v>
+      </c>
+      <c r="N3">
+        <v>314</v>
+      </c>
+      <c r="O3">
+        <v>78.5</v>
+      </c>
+      <c r="P3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K4">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>377</v>
+      </c>
+      <c r="M4">
+        <v>81</v>
+      </c>
+      <c r="N4">
+        <v>314</v>
+      </c>
+      <c r="O4">
+        <v>78.5</v>
+      </c>
+      <c r="P4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I5">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>375</v>
+      </c>
+      <c r="M5">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>312</v>
+      </c>
+      <c r="O5">
+        <v>78</v>
+      </c>
+      <c r="P5">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I6">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M6">
+        <v>79</v>
+      </c>
+      <c r="N6">
+        <v>312</v>
+      </c>
+      <c r="O6">
+        <v>78</v>
+      </c>
+      <c r="P6">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M7">
+        <v>82</v>
+      </c>
+      <c r="N7">
+        <v>310</v>
+      </c>
+      <c r="O7">
+        <v>77.5</v>
+      </c>
+      <c r="P7">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K8">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M8">
+        <v>77</v>
+      </c>
+      <c r="N8">
+        <v>309</v>
+      </c>
+      <c r="O8">
+        <v>77.25</v>
+      </c>
+      <c r="P8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>377</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M9">
+        <v>78</v>
+      </c>
+      <c r="N9">
+        <v>309</v>
+      </c>
+      <c r="O9">
+        <v>77.25</v>
+      </c>
+      <c r="P9">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K10">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>374</v>
+      </c>
+      <c r="M10">
+        <v>79</v>
+      </c>
+      <c r="N10">
+        <v>309</v>
+      </c>
+      <c r="O10">
+        <v>77.25</v>
+      </c>
+      <c r="P10">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>374</v>
+      </c>
+      <c r="M11">
+        <v>81</v>
+      </c>
+      <c r="N11">
+        <v>309</v>
+      </c>
+      <c r="O11">
+        <v>77.25</v>
+      </c>
+      <c r="P11">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K12">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>374</v>
+      </c>
+      <c r="M12">
+        <v>78</v>
+      </c>
+      <c r="N12">
+        <v>308</v>
+      </c>
+      <c r="O12">
+        <v>77</v>
+      </c>
+      <c r="P12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>374</v>
+      </c>
+      <c r="M13">
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>307</v>
+      </c>
+      <c r="O13">
+        <v>76.75</v>
+      </c>
+      <c r="P13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>376</v>
+      </c>
+      <c r="I14">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>374</v>
+      </c>
+      <c r="K14">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>375</v>
+      </c>
+      <c r="M14">
+        <v>76</v>
+      </c>
+      <c r="N14">
+        <v>306</v>
+      </c>
+      <c r="O14">
+        <v>76.5</v>
+      </c>
+      <c r="P14">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>374</v>
+      </c>
+      <c r="G15">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I15">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>375</v>
+      </c>
+      <c r="K15">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>375</v>
+      </c>
+      <c r="M15">
+        <v>75</v>
+      </c>
+      <c r="N15">
+        <v>306</v>
+      </c>
+      <c r="O15">
+        <v>76.5</v>
+      </c>
+      <c r="P15">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>376</v>
+      </c>
+      <c r="I16">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>374</v>
+      </c>
+      <c r="K16">
+        <v>78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>375</v>
+      </c>
+      <c r="M16">
+        <v>75</v>
+      </c>
+      <c r="N16">
+        <v>305</v>
+      </c>
+      <c r="O16">
+        <v>76.25</v>
+      </c>
+      <c r="P16">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I17">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>374</v>
+      </c>
+      <c r="M17">
+        <v>77</v>
+      </c>
+      <c r="N17">
+        <v>305</v>
+      </c>
+      <c r="O17">
+        <v>76.25</v>
+      </c>
+      <c r="P17">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F18" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>377</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>377</v>
+      </c>
+      <c r="K18">
+        <v>78</v>
+      </c>
+      <c r="L18" t="s">
+        <v>376</v>
+      </c>
+      <c r="M18">
+        <v>75</v>
+      </c>
+      <c r="N18">
+        <v>305</v>
+      </c>
+      <c r="O18">
+        <v>76.25</v>
+      </c>
+      <c r="P18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>374</v>
+      </c>
+      <c r="I19">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>377</v>
+      </c>
+      <c r="M19">
+        <v>76</v>
+      </c>
+      <c r="N19">
+        <v>305</v>
+      </c>
+      <c r="O19">
+        <v>76.25</v>
+      </c>
+      <c r="P19">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>375</v>
+      </c>
+      <c r="I20">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>375</v>
+      </c>
+      <c r="K20">
+        <v>76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>375</v>
+      </c>
+      <c r="M20">
+        <v>75</v>
+      </c>
+      <c r="N20">
+        <v>304</v>
+      </c>
+      <c r="O20">
+        <v>76</v>
+      </c>
+      <c r="P20">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>374</v>
+      </c>
+      <c r="I21">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>375</v>
+      </c>
+      <c r="K21">
+        <v>74</v>
+      </c>
+      <c r="L21" t="s">
+        <v>377</v>
+      </c>
+      <c r="M21">
+        <v>78</v>
+      </c>
+      <c r="N21">
+        <v>304</v>
+      </c>
+      <c r="O21">
+        <v>76</v>
+      </c>
+      <c r="P21">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G22">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>375</v>
+      </c>
+      <c r="I22">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>374</v>
+      </c>
+      <c r="K22">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>377</v>
+      </c>
+      <c r="M22">
+        <v>76</v>
+      </c>
+      <c r="N22">
+        <v>303</v>
+      </c>
+      <c r="O22">
+        <v>75.75</v>
+      </c>
+      <c r="P22">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>377</v>
+      </c>
+      <c r="I23">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>377</v>
+      </c>
+      <c r="K23">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>376</v>
+      </c>
+      <c r="M23">
+        <v>75</v>
+      </c>
+      <c r="N23">
+        <v>303</v>
+      </c>
+      <c r="O23">
+        <v>75.75</v>
+      </c>
+      <c r="P23">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>667</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>377</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>375</v>
+      </c>
+      <c r="K24">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>377</v>
+      </c>
+      <c r="M24">
+        <v>76</v>
+      </c>
+      <c r="N24">
+        <v>303</v>
+      </c>
+      <c r="O24">
+        <v>75.75</v>
+      </c>
+      <c r="P24">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>375</v>
+      </c>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I25">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25">
+        <v>76</v>
+      </c>
+      <c r="L25" t="s">
+        <v>375</v>
+      </c>
+      <c r="M25">
+        <v>74</v>
+      </c>
+      <c r="N25">
+        <v>303</v>
+      </c>
+      <c r="O25">
+        <v>75.75</v>
+      </c>
+      <c r="P25">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>374</v>
+      </c>
+      <c r="I26">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>376</v>
+      </c>
+      <c r="K26">
+        <v>76</v>
+      </c>
+      <c r="L26" t="s">
+        <v>375</v>
+      </c>
+      <c r="M26">
+        <v>74</v>
+      </c>
+      <c r="N26">
+        <v>303</v>
+      </c>
+      <c r="O26">
+        <v>75.75</v>
+      </c>
+      <c r="P26">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>375</v>
+      </c>
+      <c r="G27">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>374</v>
+      </c>
+      <c r="I27">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>376</v>
+      </c>
+      <c r="K27">
+        <v>73</v>
+      </c>
+      <c r="L27" t="s">
+        <v>375</v>
+      </c>
+      <c r="M27">
+        <v>75</v>
+      </c>
+      <c r="N27">
+        <v>303</v>
+      </c>
+      <c r="O27">
+        <v>75.75</v>
+      </c>
+      <c r="P27">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>375</v>
+      </c>
+      <c r="I28">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s">
+        <v>377</v>
+      </c>
+      <c r="K28">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>374</v>
+      </c>
+      <c r="M28">
+        <v>75</v>
+      </c>
+      <c r="N28">
+        <v>303</v>
+      </c>
+      <c r="O28">
+        <v>75.75</v>
+      </c>
+      <c r="P28">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" t="s">
+        <v>694</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>375</v>
+      </c>
+      <c r="I29">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s">
+        <v>374</v>
+      </c>
+      <c r="K29">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
+        <v>374</v>
+      </c>
+      <c r="M29">
+        <v>76</v>
+      </c>
+      <c r="N29">
+        <v>302</v>
+      </c>
+      <c r="O29">
+        <v>75.5</v>
+      </c>
+      <c r="P29">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I30">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>375</v>
+      </c>
+      <c r="K30">
+        <v>75</v>
+      </c>
+      <c r="L30" t="s">
+        <v>376</v>
+      </c>
+      <c r="M30">
+        <v>74</v>
+      </c>
+      <c r="N30">
+        <v>302</v>
+      </c>
+      <c r="O30">
+        <v>75.5</v>
+      </c>
+      <c r="P30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G31">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>376</v>
+      </c>
+      <c r="I31">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31">
+        <v>76</v>
+      </c>
+      <c r="L31" t="s">
+        <v>377</v>
+      </c>
+      <c r="M31">
+        <v>75</v>
+      </c>
+      <c r="N31">
+        <v>302</v>
+      </c>
+      <c r="O31">
+        <v>75.5</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G32">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>375</v>
+      </c>
+      <c r="I32">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>377</v>
+      </c>
+      <c r="K32">
+        <v>75</v>
+      </c>
+      <c r="L32" t="s">
+        <v>374</v>
+      </c>
+      <c r="M32">
+        <v>77</v>
+      </c>
+      <c r="N32">
+        <v>302</v>
+      </c>
+      <c r="O32">
+        <v>75.5</v>
+      </c>
+      <c r="P32">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" t="s">
+        <v>347</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>375</v>
+      </c>
+      <c r="I33">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>377</v>
+      </c>
+      <c r="K33">
+        <v>76</v>
+      </c>
+      <c r="L33" t="s">
+        <v>374</v>
+      </c>
+      <c r="M33">
+        <v>75</v>
+      </c>
+      <c r="N33">
+        <v>302</v>
+      </c>
+      <c r="O33">
+        <v>75.5</v>
+      </c>
+      <c r="P33">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>377</v>
+      </c>
+      <c r="I34">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>376</v>
+      </c>
+      <c r="K34">
+        <v>74</v>
+      </c>
+      <c r="L34" t="s">
+        <v>375</v>
+      </c>
+      <c r="M34">
+        <v>75</v>
+      </c>
+      <c r="N34">
+        <v>301</v>
+      </c>
+      <c r="O34">
+        <v>75.25</v>
+      </c>
+      <c r="P34">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>633</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>376</v>
+      </c>
+      <c r="G35">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s">
+        <v>376</v>
+      </c>
+      <c r="K35">
+        <v>74</v>
+      </c>
+      <c r="L35" t="s">
+        <v>377</v>
+      </c>
+      <c r="M35">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>301</v>
+      </c>
+      <c r="O35">
+        <v>75.25</v>
+      </c>
+      <c r="P35">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>376</v>
+      </c>
+      <c r="G36">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s">
+        <v>376</v>
+      </c>
+      <c r="I36">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>377</v>
+      </c>
+      <c r="K36">
+        <v>76</v>
+      </c>
+      <c r="L36" t="s">
+        <v>377</v>
+      </c>
+      <c r="M36">
+        <v>76</v>
+      </c>
+      <c r="N36">
+        <v>301</v>
+      </c>
+      <c r="O36">
+        <v>75.25</v>
+      </c>
+      <c r="P36">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B37" t="s">
+        <v>658</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>375</v>
+      </c>
+      <c r="G37">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>376</v>
+      </c>
+      <c r="I37">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>376</v>
+      </c>
+      <c r="K37">
+        <v>75</v>
+      </c>
+      <c r="L37" t="s">
+        <v>374</v>
+      </c>
+      <c r="M37">
+        <v>77</v>
+      </c>
+      <c r="N37">
+        <v>301</v>
+      </c>
+      <c r="O37">
+        <v>75.25</v>
+      </c>
+      <c r="P37">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>475</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>376</v>
+      </c>
+      <c r="G38">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>377</v>
+      </c>
+      <c r="I38">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s">
+        <v>376</v>
+      </c>
+      <c r="K38">
+        <v>73</v>
+      </c>
+      <c r="L38" t="s">
+        <v>375</v>
+      </c>
+      <c r="M38">
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <v>300</v>
+      </c>
+      <c r="O38">
+        <v>75</v>
+      </c>
+      <c r="P38">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>375</v>
+      </c>
+      <c r="G39">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>377</v>
+      </c>
+      <c r="I39">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s">
+        <v>375</v>
+      </c>
+      <c r="K39">
+        <v>74</v>
+      </c>
+      <c r="L39" t="s">
+        <v>376</v>
+      </c>
+      <c r="M39">
+        <v>74</v>
+      </c>
+      <c r="N39">
+        <v>300</v>
+      </c>
+      <c r="O39">
+        <v>75</v>
+      </c>
+      <c r="P39">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>377</v>
+      </c>
+      <c r="I40">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s">
+        <v>375</v>
+      </c>
+      <c r="K40">
+        <v>75</v>
+      </c>
+      <c r="L40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40">
+        <v>74</v>
+      </c>
+      <c r="N40">
+        <v>299</v>
+      </c>
+      <c r="O40">
+        <v>74.75</v>
+      </c>
+      <c r="P40">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>637</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G41">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>374</v>
+      </c>
+      <c r="I41">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41">
+        <v>74</v>
+      </c>
+      <c r="L41" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41">
+        <v>74</v>
+      </c>
+      <c r="N41">
+        <v>299</v>
+      </c>
+      <c r="O41">
+        <v>74.75</v>
+      </c>
+      <c r="P41">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42">
+        <v>74</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42">
+        <v>76</v>
+      </c>
+      <c r="N42">
+        <v>299</v>
+      </c>
+      <c r="O42">
+        <v>74.75</v>
+      </c>
+      <c r="P42">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>375</v>
+      </c>
+      <c r="G43">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s">
+        <v>374</v>
+      </c>
+      <c r="I43">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43">
+        <v>74</v>
+      </c>
+      <c r="L43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M43">
+        <v>74</v>
+      </c>
+      <c r="N43">
+        <v>299</v>
+      </c>
+      <c r="O43">
+        <v>74.75</v>
+      </c>
+      <c r="P43">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>376</v>
+      </c>
+      <c r="I44">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44">
+        <v>75</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44">
+        <v>74</v>
+      </c>
+      <c r="N44">
+        <v>297</v>
+      </c>
+      <c r="O44">
+        <v>74.25</v>
+      </c>
+      <c r="P44">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" t="s">
+        <v>696</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>376</v>
+      </c>
+      <c r="I45">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45">
+        <v>73</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45">
+        <v>75</v>
+      </c>
+      <c r="N45">
+        <v>297</v>
+      </c>
+      <c r="O45">
+        <v>74.25</v>
+      </c>
+      <c r="P45">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>377</v>
+      </c>
+      <c r="I46">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46">
+        <v>75</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46">
+        <v>73</v>
+      </c>
+      <c r="N46">
+        <v>296</v>
+      </c>
+      <c r="O46">
+        <v>74</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>376</v>
+      </c>
+      <c r="I47">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>375</v>
+      </c>
+      <c r="K47">
+        <v>75</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47">
+        <v>75</v>
+      </c>
+      <c r="N47">
+        <v>296</v>
+      </c>
+      <c r="O47">
+        <v>74</v>
+      </c>
+      <c r="P47">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>376</v>
+      </c>
+      <c r="I48">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48">
+        <v>76</v>
+      </c>
+      <c r="L48" t="s">
+        <v>376</v>
+      </c>
+      <c r="M48">
+        <v>73</v>
+      </c>
+      <c r="N48">
+        <v>296</v>
+      </c>
+      <c r="O48">
+        <v>74</v>
+      </c>
+      <c r="P48">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F49" t="s">
+        <v>376</v>
+      </c>
+      <c r="G49">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>376</v>
+      </c>
+      <c r="I49">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49">
+        <v>75</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49">
+        <v>74</v>
+      </c>
+      <c r="N49">
+        <v>293</v>
+      </c>
+      <c r="O49">
+        <v>73.25</v>
+      </c>
+      <c r="P49">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{5C4DE4E2-D020-498A-A941-2A23105AB5D9}"/>
-  </hyperlinks>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:AC25">
+    <sortCondition ref="S2:S25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14718,7 +17313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521D9E93-0418-4A29-ADAE-6AFF0EAB4B20}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -19750,7 +22345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5F9ABE-3119-480D-8EBD-CC89A58F8F56}">
   <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -29681,7 +32276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2742109F-5A5B-4C32-91D0-D2232F8832B6}">
   <dimension ref="A1:Q284"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -44403,4 +46998,25 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69662653-AB67-4ED4-84CD-11BED4B53108}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{49F2BAD1-6018-45F8-A385-506D33BBE769}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>